--- a/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_2_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.89428779182026</v>
+        <v>89.95725424567055</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6382976603010729</v>
+        <v>0.6502340967099762</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.05840904753668</v>
+        <v>88.85675130245961</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7793571565301026</v>
+        <v>0.794026549307961</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.11973675323034</v>
+        <v>88.13281524784236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.800786830411603</v>
+        <v>0.8007216057004618</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.08567927899874</v>
+        <v>86.91633003270928</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8203910497514736</v>
+        <v>0.6904617558606867</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.94713950674689</v>
+        <v>85.86785221148013</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6374616089579802</v>
+        <v>0.7888982602242844</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.08652386413004</v>
+        <v>85.01550042374744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7588188434794392</v>
+        <v>0.756848639471271</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.95240413372274</v>
+        <v>83.91897721912846</v>
       </c>
       <c r="D8" t="n">
-        <v>0.808886510300045</v>
+        <v>0.7384336355749083</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.03196215137214</v>
+        <v>83.08412139574298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7118751842282269</v>
+        <v>0.691323096130311</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.05844198632093</v>
+        <v>81.98474438096493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.863102007347482</v>
+        <v>0.8097220751522048</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.01706032837983</v>
+        <v>81.0119144986384</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7142654187714603</v>
+        <v>0.7840340240385348</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.99220575225173</v>
+        <v>79.94468590747395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7638513625853187</v>
+        <v>0.7392529053183322</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.98570127082451</v>
+        <v>78.98366185841945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6556061879562566</v>
+        <v>0.7742342711094805</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.93994664132404</v>
+        <v>77.94913754214166</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8587249205524903</v>
+        <v>0.8483780510862479</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.03200922559404</v>
+        <v>76.89366570653993</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8176333459011175</v>
+        <v>0.8807353655456394</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.94800549280517</v>
+        <v>75.8847545511599</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7966102770334665</v>
+        <v>0.8006763443444797</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.9354458650192</v>
+        <v>75.03223206425773</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7950300024017894</v>
+        <v>0.754163260466675</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.92704212629403</v>
+        <v>73.92824162646465</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7356757974960146</v>
+        <v>0.8804499945502552</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.90748250989201</v>
+        <v>73.00886663444894</v>
       </c>
       <c r="D19" t="n">
-        <v>0.770953129302253</v>
+        <v>0.8540646878365609</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.05941761426692</v>
+        <v>71.85939754176074</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7463982991933954</v>
+        <v>0.7720757369701504</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.95251149760176</v>
+        <v>71.03079366645247</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8395439233023332</v>
+        <v>0.768575064206796</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.93933325084434</v>
+        <v>70.04482927440087</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7748794722988661</v>
+        <v>0.892111984182142</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.08970022351401</v>
+        <v>68.91961389311906</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8074404625208588</v>
+        <v>0.8211252534629216</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.92707848946806</v>
+        <v>68.18082694004579</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7870560076922744</v>
+        <v>0.8028301014159377</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96750253643867</v>
+        <v>66.85462840682521</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8035354829154878</v>
+        <v>0.8337235542368303</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.97124036142891</v>
+        <v>65.95900284468883</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8164387113706602</v>
+        <v>0.8105851835284031</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.96752112674754</v>
+        <v>65.05379717045196</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8285893208237967</v>
+        <v>0.7149846328070739</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.97915502363697</v>
+        <v>64.04258990691065</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9438942031691918</v>
+        <v>0.8211506764894637</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.98020261583619</v>
+        <v>63.00542541491924</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7988235193528838</v>
+        <v>0.895269592233515</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.90787603388458</v>
+        <v>61.8794193678159</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8318627378554476</v>
+        <v>0.8731375509008126</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.11403861285518</v>
+        <v>60.99154176400706</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8529178332817374</v>
+        <v>0.7462532666839085</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.10180718033389</v>
+        <v>59.975349615532</v>
       </c>
       <c r="D32" t="n">
-        <v>0.874944175849016</v>
+        <v>0.8507156818264399</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.15486399586524</v>
+        <v>59.03676576459905</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7544047024107875</v>
+        <v>0.7659667406398064</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.06219815870048</v>
+        <v>58.19575183584288</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8925373884291302</v>
+        <v>0.8727245296792063</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.91045572038752</v>
+        <v>56.97898882876356</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7985893712522025</v>
+        <v>0.820112410162665</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.999484937521</v>
+        <v>56.01599179608728</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7478231730162849</v>
+        <v>0.8650397259875632</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.06128171530859</v>
+        <v>55.03095824568874</v>
       </c>
       <c r="D37" t="n">
-        <v>0.828757917035522</v>
+        <v>0.9515812288992654</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.96107856374044</v>
+        <v>53.91219834233377</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8244108501859485</v>
+        <v>0.8476155900595714</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.04015905252336</v>
+        <v>53.08421474297075</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7186586583232328</v>
+        <v>0.8019377508173305</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.84764706354028</v>
+        <v>52.1488552221213</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9278649947987592</v>
+        <v>0.8901314845131463</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.98959357081264</v>
+        <v>50.72760315057187</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7718221371196802</v>
+        <v>0.7667069933843509</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.13484245083337</v>
+        <v>50.06521824875359</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7420053185853461</v>
+        <v>0.8261632659311402</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.01090096706066</v>
+        <v>48.85916041684956</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8079757494100824</v>
+        <v>0.8121649617748561</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.01043073515253</v>
+        <v>48.14493941417229</v>
       </c>
       <c r="D44" t="n">
-        <v>0.870732141612753</v>
+        <v>0.8673567859532522</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.96833013845153</v>
+        <v>46.98787251067124</v>
       </c>
       <c r="D45" t="n">
-        <v>0.868321264780197</v>
+        <v>0.8644555533927002</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.03570644427171</v>
+        <v>46.05242332843356</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8421727932590555</v>
+        <v>0.9161698466139415</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.13615535356706</v>
+        <v>44.83903645858192</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8291334144002482</v>
+        <v>0.9685372794778579</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.11139445699258</v>
+        <v>43.87496067337072</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9494378920227288</v>
+        <v>0.9657452220944048</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99218152399788</v>
+        <v>42.94373494625368</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8427565476770957</v>
+        <v>0.8725508750318126</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.14947062241501</v>
+        <v>41.90274476924372</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8701662324844126</v>
+        <v>1.007202870337334</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.91126898427813</v>
+        <v>40.99933259276451</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8558959830463481</v>
+        <v>0.880221769922349</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.1715360551765</v>
+        <v>40.03095515277867</v>
       </c>
       <c r="D52" t="n">
-        <v>0.79698697899256</v>
+        <v>0.7841864385217961</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.15524410837067</v>
+        <v>39.08753454927455</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8910883029521455</v>
+        <v>0.8426681591481167</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.05653562071751</v>
+        <v>37.99529873982141</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8697548478313627</v>
+        <v>0.8447834650735752</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.03420957067149</v>
+        <v>36.9953177663005</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8980322440911436</v>
+        <v>0.8232615218495544</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.91266591047659</v>
+        <v>35.88394413016812</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7798300152045343</v>
+        <v>1.013565880699432</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.99363894150267</v>
+        <v>35.08919226133428</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9279706526233192</v>
+        <v>0.7586377088708428</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.81519589323968</v>
+        <v>33.87992405565813</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8951786489180915</v>
+        <v>1.099604715949165</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.98041427260074</v>
+        <v>33.10705639418824</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9097662550298051</v>
+        <v>0.8501905087569042</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.0677656637459</v>
+        <v>31.88997553453035</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9151879224772675</v>
+        <v>0.8971316298772831</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.00174021131846</v>
+        <v>31.10870011338412</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9325359259463517</v>
+        <v>0.9110085369777685</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.16825873267136</v>
+        <v>30.11324796353172</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9133207815757585</v>
+        <v>0.9660067729963098</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.98834472515486</v>
+        <v>28.99585445539076</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9806215810695048</v>
+        <v>0.8899169567248747</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.07467968203722</v>
+        <v>27.92583001351073</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8910470572785799</v>
+        <v>0.9100030891888216</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.11953203303386</v>
+        <v>27.12221884482575</v>
       </c>
       <c r="D65" t="n">
-        <v>0.813150578281657</v>
+        <v>0.9276548821514937</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.89869529809956</v>
+        <v>26.08595266501204</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7956740301203262</v>
+        <v>0.9251335526799225</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.93031780681013</v>
+        <v>24.89768806386954</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8883268673122138</v>
+        <v>0.8943885274989284</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.05828273194781</v>
+        <v>23.9787468764113</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8851852558258052</v>
+        <v>0.8353835057461032</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.91875934161211</v>
+        <v>22.90402635298558</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8584414687703855</v>
+        <v>0.8415097578170181</v>
       </c>
     </row>
   </sheetData>
